--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_8_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_8_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[58.59717596501278, 67.70133902613512]</t>
+          <t>[58.65068788193136, 67.64782710921654]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[46.169608058874445, 52.36464415189053]</t>
+          <t>[46.16938927672991, 52.36486293403507]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[58.498843891557186, 69.64978013169005]</t>
+          <t>[58.454422723617526, 69.69420129962971]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.29615372926791, 52.96024872984733]</t>
+          <t>[47.29396165767887, 52.962440801436365]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_8_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_8_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[58.65068788193136, 67.64782710921654]</t>
+          <t>[58.66403412231081, 67.63448086883709]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[46.16938927672991, 52.36486293403507]</t>
+          <t>[46.17125195588573, 52.363000254879246]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[58.454422723617526, 69.69420129962971]</t>
+          <t>[58.48574525386779, 69.66287876937945]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.29396165767887, 52.962440801436365]</t>
+          <t>[47.296091551689244, 52.96031090742599]</t>
         </is>
       </c>
       <c r="U3" t="n">
